--- a/Training_Path1.xlsx
+++ b/Training_Path1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="145">
   <si>
     <t>Subject/Topic</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Introduction to Managed Applicationdfdsfsdasdf</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1958,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="AJ26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AM39" sqref="AM39"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>

--- a/Training_Path1.xlsx
+++ b/Training_Path1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="146">
   <si>
     <t>Subject/Topic</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Introduction to Managed Applicationdfdsfsdasdf</t>
+  </si>
+  <si>
+    <t>Orange Cloud for Business New file</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1961,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="AJ26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,7 +2275,7 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
